--- a/save/作业/第15周-财报/年报分析表.xlsx
+++ b/save/作业/第15周-财报/年报分析表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>新希望000876</t>
   </si>
@@ -50,6 +50,42 @@
   </si>
   <si>
     <t>资产负债率</t>
+  </si>
+  <si>
+    <t>货币资金</t>
+  </si>
+  <si>
+    <t>交易性金融资产</t>
+  </si>
+  <si>
+    <t>其他流动资产里的理财产品</t>
+  </si>
+  <si>
+    <t>其他流动资产里的结构性存款</t>
+  </si>
+  <si>
+    <t>准货币资金</t>
+  </si>
+  <si>
+    <t>短期借款</t>
+  </si>
+  <si>
+    <t>一年内到期的非流动负债</t>
+  </si>
+  <si>
+    <t>长期借款</t>
+  </si>
+  <si>
+    <t>应付债券</t>
+  </si>
+  <si>
+    <t>长期应付款</t>
+  </si>
+  <si>
+    <t>有息负债总额</t>
+  </si>
+  <si>
+    <t>准货币资金与有息负债总额的差额</t>
   </si>
 </sst>
 </file>
@@ -784,8 +820,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H5" totalsRowShown="0">
-  <autoFilter ref="A1:H5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H17" totalsRowShown="0">
+  <autoFilter ref="A1:H17"/>
   <tableColumns count="8">
     <tableColumn id="1" name="新希望000876" dataDxfId="0"/>
     <tableColumn id="2" name="2014" dataDxfId="1"/>
@@ -1058,13 +1094,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20" customHeight="1" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.375" style="1" customWidth="1"/>
@@ -1211,6 +1247,66 @@
         <v>0.00354569242174197</v>
       </c>
     </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/save/作业/第15周-财报/年报分析表.xlsx
+++ b/save/作业/第15周-财报/年报分析表.xlsx
@@ -1060,8 +1060,8 @@
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20" customHeight="1" outlineLevelRow="4" outlineLevelCol="7"/>
